--- a/biology/Microbiologie/Acrasiomycetes/Acrasiomycetes.xlsx
+++ b/biology/Microbiologie/Acrasiomycetes/Acrasiomycetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acrasiomycetes sont une classe de champignons de la division des Acrasiomycota selon MycoBank                                            (28 juin 2013)[1], ou de l’embranchement des Myxomycota selon ITIS      (28 juin 2013)[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acrasiomycetes sont une classe de champignons de la division des Acrasiomycota selon MycoBank                                            (28 juin 2013), ou de l’embranchement des Myxomycota selon ITIS      (28 juin 2013). 
 C’est un des trois groupes de Mycétozoaires, qui sont des organismes vivants pourvus d'un noyau et dont le cycle de vie est caractérisé par l'alternance de formes unicellulaires (ici l'amibe acrasiale et la spore) et de formes multicellulaires (ici la limace amibiale et le sporocarpe).[réf. nécessaire]
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (28 juin 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 juin 2013) :
 ordre des Acrasiales
-Selon NCBI  (28 juin 2013)[3] :
+Selon NCBI  (28 juin 2013) :
 ordre des Acrasida
 famille des Acrasiaceae
 famille des Guttulinaceae</t>
